--- a/VivelProTestExample.xlsx
+++ b/VivelProTestExample.xlsx
@@ -226,7 +226,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/VivelProTestExample.xlsx
+++ b/VivelProTestExample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t xml:space="preserve">Segment</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">Scene</t>
   </si>
   <si>
+    <t xml:space="preserve">SceneDescription</t>
+  </si>
+  <si>
     <t xml:space="preserve">Background</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t xml:space="preserve">Character(s)</t>
   </si>
   <si>
+    <t xml:space="preserve">Mood(s)</t>
+  </si>
+  <si>
     <t xml:space="preserve">SFX</t>
   </si>
   <si>
@@ -55,40 +61,52 @@
     <t xml:space="preserve">Wrong Answers</t>
   </si>
   <si>
-    <t xml:space="preserve">Tom(Happy), Charlie(sad), </t>
+    <t xml:space="preserve">Tom,Charlie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy,Sad</t>
   </si>
   <si>
     <t xml:space="preserve">Hello, there.</t>
   </si>
   <si>
-    <t xml:space="preserve">Arthur(Smile),</t>
+    <t xml:space="preserve">Arthur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy</t>
   </si>
   <si>
     <t xml:space="preserve">This is an intro to Vivel</t>
   </si>
   <si>
-    <t xml:space="preserve">Tom(Happy) </t>
+    <t xml:space="preserve">Happpy,Sad</t>
   </si>
   <si>
     <t xml:space="preserve">Why are you sad Charlie ?</t>
   </si>
   <si>
-    <t xml:space="preserve">Charlie(sad)</t>
+    <t xml:space="preserve">Charlie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sad</t>
   </si>
   <si>
     <t xml:space="preserve">It’s just a demo</t>
   </si>
   <si>
+    <t xml:space="preserve">Tom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">happy</t>
+  </si>
+  <si>
     <t xml:space="preserve">But this is a start, we can create more.</t>
   </si>
   <si>
-    <t xml:space="preserve">Charlie(happy)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Really ???</t>
   </si>
   <si>
-    <t xml:space="preserve">Wisnu Jelek</t>
+    <t xml:space="preserve">Yes, Vivel is made for creating more than this.</t>
   </si>
   <si>
     <t xml:space="preserve">ok then..</t>
@@ -97,7 +115,7 @@
     <t xml:space="preserve">Hey, before you go… Let me show you a simple thing.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tom(Happy), Charlie(Happy), </t>
+    <t xml:space="preserve">happy,happy</t>
   </si>
   <si>
     <t xml:space="preserve">well then, Have fun in the future.</t>
@@ -110,7 +128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -134,7 +152,9 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="13"/>
+      <color rgb="FFEEEEEE"/>
       <name val="Noto Mono"/>
       <family val="0"/>
       <charset val="1"/>
@@ -146,13 +166,25 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Mono"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6D6D"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -189,13 +221,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -203,6 +235,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -215,6 +251,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF6D6D"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -223,178 +319,217 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="F9:J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="50.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="50.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="22.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="29.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
